--- a/Reports/accounts_receivable_payable.xlsx
+++ b/Reports/accounts_receivable_payable.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iese365-my.sharepoint.com/personal/harel_lichtenstein_iese_net/Documents/Desktop/IESE/EMBA 2026/Term 5/Executive Management Simulation - B-E1/Session 1/Report Samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iese365-my.sharepoint.com/personal/harel_lichtenstein_iese_net/Documents/Desktop/AI Tests/EXSIM models/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{C63EB83B-2635-4819-8C8C-F4016C63A03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2850" windowWidth="21555" windowHeight="18030" xr2:uid="{DD857245-771B-4329-B81C-A38585926C0A}"/>
+    <workbookView xWindow="21630" yWindow="1545" windowWidth="26400" windowHeight="18030" xr2:uid="{DD857245-771B-4329-B81C-A38585926C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -608,12 +621,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1003,141 +1016,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
